--- a/posesiones/1485985.xlsx
+++ b/posesiones/1485985.xlsx
@@ -1844,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>9</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>18</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>21</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>18</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>20</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>15</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>16</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>13</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24">
         <v>5</v>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R25">
         <v>15</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R30">
         <v>22</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>13</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>22</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>32</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R52">
         <v>9</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>26</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>15</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R58">
         <v>19</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4700,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R60">
         <v>15</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R62">
         <v>9</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R64">
         <v>21</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R66">
         <v>16</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R70">
         <v>18</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R72">
         <v>9</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R74">
         <v>19</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R76">
         <v>10</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R84">
         <v>21</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>5</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R96">
         <v>20</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R99">
         <v>22</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R100">
         <v>6</v>
@@ -6717,10 +6717,10 @@
         <v>1</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6761,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R103">
         <v>17</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R105">
         <v>4</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R106">
         <v>10</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R112">
         <v>17</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R119">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R121">
         <v>9</v>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R122">
         <v>14</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R123">
         <v>14</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>7</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R133">
         <v>26</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R138">
         <v>28</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9145,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R151">
         <v>11</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R153">
         <v>12</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>14</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9871,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R166">
         <v>11</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R168">
         <v>17</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10077,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R170">
         <v>23</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R172">
         <v>24</v>
@@ -10230,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>19</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R175">
         <v>15</v>
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R177">
         <v>11</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>23</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R184">
         <v>23</v>
@@ -10827,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R186">
         <v>11</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11450,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R198">
         <v>32</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11553,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R200">
         <v>16</v>
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R201">
         <v>15</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11709,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R203">
         <v>11</v>
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>20</v>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R206">
         <v>24</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R208">
         <v>22</v>
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12250,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R214">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12491,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R219">
         <v>21</v>
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12588,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R224">
         <v>10</v>
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12932,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>15</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13123,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R235">
         <v>28</v>
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13690,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13740,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R245">
         <v>6</v>
@@ -13784,10 +13784,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13881,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14392,10 +14392,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R263">
         <v>7</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R265">
         <v>15</v>
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R266">
         <v>16</v>
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R272">
         <v>21</v>
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R274">
         <v>9</v>
@@ -15186,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R276">
         <v>9</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R277">
         <v>15</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R279">
         <v>5</v>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15580,7 +15580,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15674,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R288">
         <v>25</v>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15921,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R290">
         <v>10</v>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R295">
         <v>9</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16359,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R299">
         <v>17</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R300">
         <v>14</v>
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R302">
         <v>5</v>
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16756,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R307">
         <v>43</v>
@@ -16806,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16859,7 +16859,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R309">
         <v>4</v>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17003,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17147,7 +17147,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R315">
         <v>14</v>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R317">
         <v>18</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17347,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R319">
         <v>17</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17635,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17732,7 +17732,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>17</v>
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R328">
         <v>17</v>
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R330">
         <v>10</v>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R333">
         <v>13</v>
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R335">
         <v>23</v>
@@ -18182,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18326,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18376,7 +18376,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R340">
         <v>31</v>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R347">
         <v>7</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R348">
         <v>20</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18870,7 +18870,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R350">
         <v>7</v>
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -18973,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R356">
         <v>6</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R361">
         <v>18</v>
@@ -19455,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19505,7 +19505,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19555,7 +19555,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R364">
         <v>24</v>
@@ -19605,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19655,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R366">
         <v>17</v>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19755,7 +19755,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R368">
         <v>15</v>
@@ -19805,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19855,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R370">
         <v>24</v>
@@ -19908,7 +19908,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R371">
         <v>14</v>
@@ -19961,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R372">
         <v>14</v>
@@ -20011,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20061,7 +20061,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R374">
         <v>19</v>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20164,7 +20164,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R376">
         <v>10</v>
@@ -20208,10 +20208,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20258,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20352,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20399,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20440,10 +20440,10 @@
         <v>1</v>
       </c>
       <c r="P382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20493,7 +20493,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R383">
         <v>19</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20593,7 +20593,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R386">
         <v>24</v>
@@ -20696,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20746,7 +20746,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R388">
         <v>12</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20846,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R390">
         <v>28</v>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20946,7 +20946,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R392">
         <v>24</v>
@@ -20996,7 +20996,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21090,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21137,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21187,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21237,7 +21237,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R398">
         <v>31</v>
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21331,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21522,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R404">
         <v>19</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21625,7 +21625,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R406">
         <v>13</v>
@@ -21675,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R407">
         <v>29</v>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21819,7 +21819,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21869,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R411">
         <v>15</v>
@@ -21919,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22016,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R414">
         <v>7</v>
@@ -22066,7 +22066,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R419">
         <v>24</v>
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R420">
         <v>15</v>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22460,7 +22460,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R423">
         <v>13</v>
@@ -22513,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22563,7 +22563,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R425">
         <v>8</v>
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22666,7 +22666,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R427">
         <v>21</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22769,7 +22769,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R429">
         <v>8</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22869,7 +22869,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R431">
         <v>7</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22969,7 +22969,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R433">
         <v>14</v>
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23163,7 +23163,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R437">
         <v>26</v>
@@ -23216,7 +23216,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R438">
         <v>25</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R440">
         <v>22</v>
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23460,7 +23460,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R443">
         <v>13</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23560,7 +23560,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R445">
         <v>17</v>
@@ -23610,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23657,7 +23657,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23754,7 +23754,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23807,7 +23807,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23857,7 +23857,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R451">
         <v>14</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R453">
         <v>7</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24154,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24204,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R458">
         <v>11</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24307,7 +24307,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R460">
         <v>9</v>
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24407,7 +24407,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R462">
         <v>22</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24551,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24601,7 +24601,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R466">
         <v>10</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24839,7 +24839,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24889,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R472">
         <v>26</v>
@@ -24939,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24986,7 +24986,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25036,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25227,7 +25227,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R479">
         <v>2</v>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25324,7 +25324,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R481">
         <v>1</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25424,7 +25424,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R483">
         <v>7</v>
@@ -25474,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25662,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25759,7 +25759,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R490">
         <v>6</v>
@@ -25809,7 +25809,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25856,7 +25856,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25906,7 +25906,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R493">
         <v>5</v>
@@ -25956,7 +25956,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26050,7 +26050,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26147,7 +26147,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R498">
         <v>5</v>
@@ -26200,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26250,7 +26250,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R500">
         <v>7</v>
@@ -26300,7 +26300,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26441,7 +26441,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26488,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26535,7 +26535,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R507">
         <v>2</v>
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26685,7 +26685,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26735,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26785,7 +26785,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R511">
         <v>7</v>
@@ -26841,7 +26841,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R512">
         <v>0</v>
@@ -26885,10 +26885,10 @@
         <v>1</v>
       </c>
       <c r="P513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q513">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="514" spans="1:17">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
